--- a/m_03/m_03_v_02_filter/m_03_v_02.xlsx
+++ b/m_03/m_03_v_02_filter/m_03_v_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27404"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\advanced_analytics_excel_video_course\m_03\m_03_v_02_filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147DA74-6DD5-4E9A-B389-932C0844585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D959F41-63B9-4069-9301-7BA5CD8EF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="6" r:id="rId1"/>
@@ -30,28 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E667399B-EBC2-466C-9E96-D86D9664DCF7}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -527,7 +505,7 @@
     <col min="6" max="6" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,27 +524,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="str" cm="1">
-        <f t="array" ref="H1:M1">dm_sales_filter[#Headers]</f>
-        <v>trans_id</v>
-      </c>
-      <c r="I1" t="str">
-        <v>emp_first</v>
-      </c>
-      <c r="J1" t="str">
-        <v>emp_last</v>
-      </c>
-      <c r="K1" t="str">
-        <v>product</v>
-      </c>
-      <c r="L1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="M1" t="str">
-        <v>sales_amt</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -585,27 +544,8 @@
       <c r="F2" s="1">
         <v>99.9</v>
       </c>
-      <c r="H2" cm="1">
-        <f t="array" ref="H2:M2">_xlfn._xlws.FILTER(dm_sales_filter[], dm_sales_filter[product] = "Sticky Notes")</f>
-        <v>2</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Sticky Notes</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -625,7 +565,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -644,29 +584,8 @@
       <c r="F4" s="1">
         <v>39.979999999999997</v>
       </c>
-      <c r="H4" cm="1">
-        <f t="array" ref="H4:M6">_xlfn._xlws.FILTER(dm_sales_filter[],
-(dm_sales_filter[product] = "Copy Paper") *
-(dm_sales_filter[quantity] &gt;= 3))</f>
-        <v>1</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -685,26 +604,8 @@
       <c r="F5" s="1">
         <v>149.85</v>
       </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -723,26 +624,8 @@
       <c r="F6" s="1">
         <v>14.97</v>
       </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -762,7 +645,7 @@
         <v>79.92</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -782,7 +665,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -801,29 +684,8 @@
       <c r="F9" s="1">
         <v>99.95</v>
       </c>
-      <c r="H9" cm="1">
-        <f t="array" ref="H9:M18">_xlfn._xlws.FILTER(dm_sales_filter[],
-(dm_sales_filter[product] = "Copy Paper") +
-(dm_sales_filter[quantity] &gt;= 6))</f>
-        <v>1</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -842,26 +704,8 @@
       <c r="F10" s="1">
         <v>119.88</v>
       </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="K10" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -880,26 +724,8 @@
       <c r="F11" s="1">
         <v>17.43</v>
       </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="J11" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K11" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -918,26 +744,8 @@
       <c r="F12" s="1">
         <v>39.96</v>
       </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="K12" t="str">
-        <v>File folders</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -956,26 +764,8 @@
       <c r="F13" s="1">
         <v>79.92</v>
       </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="J13" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K13" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -994,26 +784,8 @@
       <c r="F14" s="1">
         <v>74.849999999999994</v>
       </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14" t="str">
-        <v>Pam</v>
-      </c>
-      <c r="J14" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K14" t="str">
-        <v>Legal Pads</v>
-      </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1032,26 +804,8 @@
       <c r="F15" s="1">
         <v>59.97</v>
       </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15" t="str">
-        <v>Andy</v>
-      </c>
-      <c r="J15" t="str">
-        <v>Bernard</v>
-      </c>
-      <c r="K15" t="str">
-        <v>Copy Paper</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1069,127 +823,6 @@
       </c>
       <c r="F16" s="1">
         <v>14.94</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="J16" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K16" t="str">
-        <v>Printer Ink</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="I17" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="J17" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="K17" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>74.849999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="I18" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="J18" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="K18" t="str">
-        <v>Rubber bands</v>
-      </c>
-      <c r="L18">
-        <v>60</v>
-      </c>
-      <c r="M18">
-        <v>14.94</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H21" cm="1">
-        <f t="array" ref="H21:M23">_xlfn._xlws.FILTER(dm_sales_filter[],
-(dm_sales_filter[sales_amt] &gt;= 100) +
-((dm_sales_filter[quantity] &gt; 10) * (dm_sales_filter[product] = "Envelopes")))</f>
-        <v>4</v>
-      </c>
-      <c r="I21" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="J21" t="str">
-        <v>Hudson</v>
-      </c>
-      <c r="K21" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="L21">
-        <v>15</v>
-      </c>
-      <c r="M21">
-        <v>149.85</v>
-      </c>
-    </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22" t="str">
-        <v>Jim</v>
-      </c>
-      <c r="J22" t="str">
-        <v>Halpert</v>
-      </c>
-      <c r="K22" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="L22">
-        <v>12</v>
-      </c>
-      <c r="M22">
-        <v>119.88</v>
-      </c>
-    </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H23">
-        <v>13</v>
-      </c>
-      <c r="I23" t="str">
-        <v>Phyllis</v>
-      </c>
-      <c r="J23" t="str">
-        <v>Vance</v>
-      </c>
-      <c r="K23" t="str">
-        <v>Envelopes</v>
-      </c>
-      <c r="L23">
-        <v>15</v>
-      </c>
-      <c r="M23">
-        <v>74.849999999999994</v>
       </c>
     </row>
   </sheetData>
